--- a/protected/commands/template/m_template_new.xlsx
+++ b/protected/commands/template/m_template_new.xlsx
@@ -3262,14 +3262,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3362,18 +3362,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3383,8 +3372,90 @@
       <charset val="136"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3398,27 +3469,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3426,81 +3477,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3515,16 +3491,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3532,14 +3530,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3553,10 +3543,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -3572,12 +3561,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3622,7 +3611,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3634,13 +3653,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3652,19 +3713,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3676,25 +3779,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3706,49 +3809,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3766,121 +3839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3893,6 +3852,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3975,32 +3964,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4018,57 +3981,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4091,8 +4008,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4107,241 +4054,283 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4831,109 +4820,85 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="14" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="178" fontId="14" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -4950,10 +4915,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -4985,26 +4950,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="合計" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="55" builtinId="47"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -5955,10 +5920,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F246"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -6714,128 +6679,108 @@
       <c r="E72" s="23"/>
       <c r="F72" s="107"/>
     </row>
-    <row r="73" ht="21.75" spans="1:6">
-      <c r="A73" s="27"/>
+    <row r="73" s="1" customFormat="1" ht="21.75" spans="1:6">
+      <c r="A73" s="20"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="111"/>
-    </row>
-    <row r="74" ht="21.75" spans="1:6">
-      <c r="A74" s="32"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="112" t="s">
+      <c r="C73" s="109"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="107"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="21.75" spans="1:6">
+      <c r="A74" s="20"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="107"/>
+    </row>
+    <row r="75" ht="21.75" spans="1:6">
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" ht="21.75" spans="1:6">
+      <c r="A76" s="32"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="31">
-        <f>SUM(F75:F124)</f>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="31">
+        <f>SUM(F77:F126)</f>
         <v>34.237012987013</v>
       </c>
     </row>
-    <row r="75" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A75" s="36" t="s">
+    <row r="77" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A77" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="37"/>
-      <c r="C75" s="113"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="40">
-        <f>SUM(E76:E86)/55*30</f>
+      <c r="B77" s="37"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="40">
+        <f>SUM(E78:E88)/55*30</f>
         <v>11.4545454545455</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A76" s="41" t="s">
+    <row r="78" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A78" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="163" t="s">
+      <c r="B78" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="114">
+      <c r="C78" s="114">
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="197" t="s">
+      <c r="D78" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="E76" s="44">
-        <f>IF(C76&gt;0.2,5,IF(C76&gt;0.1,4,IF(C76&gt;0,3,IF(C76&gt;-0.1,2,IF(C76&gt;-0.2,1,0)))))</f>
+      <c r="E78" s="44">
+        <f>IF(C78&gt;0.2,5,IF(C78&gt;0.1,4,IF(C78&gt;0,3,IF(C78&gt;-0.1,2,IF(C78&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F76" s="45"/>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A77" s="41"/>
-      <c r="B77" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="114">
-        <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="197" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="44">
-        <f>IF(C77&gt;0.2,5,IF(C77&gt;0.1,4,IF(C77&gt;0,3,IF(C77&gt;-0.1,2,IF(C77&gt;-0.2,1,0)))))</f>
-        <v>2</v>
-      </c>
-      <c r="F77" s="45"/>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A78" s="41"/>
-      <c r="B78" s="165" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="115">
-        <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="197" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="44">
-        <f>IF(C78&gt;0.4,5,IF(C78&gt;0.2,4,IF(C78&gt;0,3,IF(C78&gt;-0.2,2,IF(C78&gt;-0.4,1,0)))))</f>
-        <v>2</v>
-      </c>
-      <c r="F78" s="48"/>
+      <c r="F78" s="45"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A79" s="41"/>
-      <c r="B79" s="165" t="s">
-        <v>90</v>
-      </c>
-      <c r="C79" s="115">
-        <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="197" t="s">
-        <v>91</v>
+      <c r="B79" s="163" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="114">
+        <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="189" t="s">
+        <v>87</v>
       </c>
       <c r="E79" s="44">
-        <f>IF(C79&gt;0.4,5,IF(C79&gt;0.2,4,IF(C79&gt;0,3,IF(C79&gt;-0.2,2,IF(C79&gt;-0.4,1,0)))))</f>
+        <f>IF(C79&gt;0.2,5,IF(C79&gt;0.1,4,IF(C79&gt;0,3,IF(C79&gt;-0.1,2,IF(C79&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F79" s="48"/>
+      <c r="F79" s="45"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A80" s="41"/>
       <c r="B80" s="165" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C80" s="115">
-        <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="197" t="s">
-        <v>93</v>
+        <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="189" t="s">
+        <v>89</v>
       </c>
       <c r="E80" s="44">
-        <f>IF(C80&gt;3,5,IF(C80&gt;1,4,IF(C80&gt;0,3,IF(C80&gt;-1,2,IF(C80&gt;-2,1,0)))))</f>
+        <f>IF(C80&gt;0.4,5,IF(C80&gt;0.2,4,IF(C80&gt;0,3,IF(C80&gt;-0.2,2,IF(C80&gt;-0.4,1,0)))))</f>
         <v>2</v>
       </c>
       <c r="F80" s="48"/>
@@ -6843,17 +6788,17 @@
     <row r="81" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A81" s="41"/>
       <c r="B81" s="165" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C81" s="115">
-        <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
-        <v>0</v>
-      </c>
-      <c r="D81" s="197" t="s">
-        <v>93</v>
+        <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="189" t="s">
+        <v>91</v>
       </c>
       <c r="E81" s="44">
-        <f>IF(C81&gt;3,5,IF(C81&gt;1,4,IF(C81&gt;0,3,IF(C81&gt;-1,2,IF(C81&gt;-2,1,0)))))</f>
+        <f>IF(C81&gt;0.4,5,IF(C81&gt;0.2,4,IF(C81&gt;0,3,IF(C81&gt;-0.2,2,IF(C81&gt;-0.4,1,0)))))</f>
         <v>2</v>
       </c>
       <c r="F81" s="48"/>
@@ -6861,17 +6806,17 @@
     <row r="82" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A82" s="41"/>
       <c r="B82" s="165" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C82" s="115">
-        <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="197" t="s">
-        <v>96</v>
+        <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="189" t="s">
+        <v>93</v>
       </c>
       <c r="E82" s="44">
-        <f>IF(C82&gt;0.2,5,IF(C82&gt;0.1,4,IF(C82&gt;0,3,IF(C82&gt;-0.1,2,IF(C82&gt;-0.2,1,0)))))</f>
+        <f>IF(C82&gt;3,5,IF(C82&gt;1,4,IF(C82&gt;0,3,IF(C82&gt;-1,2,IF(C82&gt;-2,1,0)))))</f>
         <v>2</v>
       </c>
       <c r="F82" s="48"/>
@@ -6879,392 +6824,390 @@
     <row r="83" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A83" s="41"/>
       <c r="B83" s="165" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="115">
+        <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="189" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="44">
+        <f>IF(C83&gt;3,5,IF(C83&gt;1,4,IF(C83&gt;0,3,IF(C83&gt;-1,2,IF(C83&gt;-2,1,0)))))</f>
+        <v>2</v>
+      </c>
+      <c r="F83" s="48"/>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A84" s="41"/>
+      <c r="B84" s="165" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="115">
+        <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="189" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="44">
+        <f>IF(C84&gt;0.2,5,IF(C84&gt;0.1,4,IF(C84&gt;0,3,IF(C84&gt;-0.1,2,IF(C84&gt;-0.2,1,0)))))</f>
+        <v>2</v>
+      </c>
+      <c r="F84" s="48"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A85" s="41"/>
+      <c r="B85" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="115">
+      <c r="C85" s="115">
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="197" t="s">
+      <c r="D85" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="E83" s="44">
-        <f>IF(C83&gt;0.2,5,IF(C83&gt;0.1,4,IF(C83&gt;0,3,IF(C83&gt;-0.1,2,IF(C83&gt;-0.2,1,0)))))</f>
+      <c r="E85" s="44">
+        <f>IF(C85&gt;0.2,5,IF(C85&gt;0.1,4,IF(C85&gt;0,3,IF(C85&gt;-0.1,2,IF(C85&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F83" s="48"/>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A84" s="49" t="s">
+      <c r="F85" s="48"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A86" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="166" t="s">
+      <c r="B86" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="115">
+      <c r="C86" s="115">
         <f>(B13/IF(B14=0,1,B14))</f>
         <v>0</v>
       </c>
-      <c r="D84" s="167" t="s">
+      <c r="D86" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="E84" s="44">
-        <f>IF(C84&gt;2.3,1,IF(C84&gt;1.5,3,IF(C84&gt;=1,5,IF(C84&gt;0.7,4,IF(C84&gt;0.4,2,IF(C84&gt;0.2,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="48"/>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A85" s="49"/>
-      <c r="B85" s="166" t="s">
+      <c r="E86" s="44">
+        <f>IF(C86&gt;2.3,1,IF(C86&gt;1.5,3,IF(C86&gt;=1,5,IF(C86&gt;0.7,4,IF(C86&gt;0.4,2,IF(C86&gt;0.2,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="48"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A87" s="49"/>
+      <c r="B87" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="115">
+      <c r="C87" s="115">
         <f>(B5/IF(B6=0,1,B6))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="167" t="s">
+      <c r="D87" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="E85" s="44">
-        <f>IF(C85&gt;2.3,1,IF(C85&gt;1.5,3,IF(C85&gt;=1,5,IF(C85&gt;0.7,4,IF(C85&gt;0.4,2,IF(C85&gt;0.2,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="F85" s="48"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A86" s="50" t="s">
+      <c r="E87" s="44">
+        <f>IF(C87&gt;2.3,1,IF(C87&gt;1.5,3,IF(C87&gt;=1,5,IF(C87&gt;0.7,4,IF(C87&gt;0.4,2,IF(C87&gt;0.2,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="48"/>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A88" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="165" t="s">
+      <c r="B88" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="115">
+      <c r="C88" s="115">
         <f>(B19/IF(B4=0,1,B4))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="167" t="s">
+      <c r="D88" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="44">
-        <f>IF(C86&gt;0.032,1,IF(C86&gt;0.024,2,IF(C86&gt;0.016,3,IF(C86&gt;0.008,4,IF(C86&gt;0,5,5)))))</f>
+      <c r="E88" s="44">
+        <f>IF(C88&gt;0.032,1,IF(C88&gt;0.024,2,IF(C88&gt;0.016,3,IF(C88&gt;0.008,4,IF(C88&gt;0,5,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F86" s="48"/>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A87" s="51" t="s">
+      <c r="F88" s="48"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A89" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B87" s="52"/>
-      <c r="C87" s="116"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="55">
-        <f>SUM(E88:E94)/25*20</f>
+      <c r="B89" s="52"/>
+      <c r="C89" s="116"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="55">
+        <f>SUM(E90:E96)/25*20</f>
         <v>8</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A88" s="168" t="s">
+    <row r="90" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A90" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="169" t="s">
+      <c r="B90" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="117">
+      <c r="C90" s="117">
         <f>(B20-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D88" s="170" t="s">
+      <c r="D90" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="E88" s="62">
-        <f>IF(C88&gt;0.2,5,IF(C88&gt;0,4,IF(C88&gt;-0.1,3,IF(C88&gt;-0.2,2,IF(C88&gt;-0.3,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F88" s="60"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="46.5" spans="1:6">
-      <c r="A89" s="168"/>
-      <c r="B89" s="169" t="s">
+      <c r="E90" s="62">
+        <f>IF(C90&gt;0.2,5,IF(C90&gt;0,4,IF(C90&gt;-0.1,3,IF(C90&gt;-0.2,2,IF(C90&gt;-0.3,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="60"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="46.5" spans="1:6">
+      <c r="A91" s="56"/>
+      <c r="B91" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="C89" s="117">
+      <c r="C91" s="117">
         <f>(B21-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D89" s="170" t="s">
+      <c r="D91" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="E89" s="62">
-        <f>IF(C89&gt;0.7,5,IF(C89&gt;0.3,4,IF(C89&gt;0.1,3,)))</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="60"/>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A90" s="168"/>
-      <c r="B90" s="169" t="s">
+      <c r="E91" s="62">
+        <f>IF(C91&gt;0.7,5,IF(C91&gt;0.3,4,IF(C91&gt;0.1,3,)))</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="60"/>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A92" s="56"/>
+      <c r="B92" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="C90" s="118">
+      <c r="C92" s="118">
         <f>B21</f>
         <v>0</v>
       </c>
-      <c r="D90" s="171" t="s">
+      <c r="D92" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="62" t="s">
+      <c r="E92" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="60"/>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A91" s="168" t="s">
+      <c r="F92" s="60"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A93" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="B91" s="169" t="s">
+      <c r="B93" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="117">
+      <c r="C93" s="117">
         <f>B25/IF(B5=0,1,B5)</f>
         <v>0</v>
       </c>
-      <c r="D91" s="170" t="s">
+      <c r="D93" s="169" t="s">
         <v>118</v>
       </c>
-      <c r="E91" s="62">
-        <f>IF(C91&gt;0.3,0,IF(C91&gt;0.25,1,IF(C91&gt;0.2,2,IF(C91&gt;0.15,3,IF(C91&gt;0.1,4,5)))))</f>
+      <c r="E93" s="62">
+        <f>IF(C93&gt;0.3,0,IF(C93&gt;0.25,1,IF(C93&gt;0.2,2,IF(C93&gt;0.15,3,IF(C93&gt;0.1,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F91" s="60"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A92" s="168"/>
-      <c r="B92" s="169" t="s">
+      <c r="F93" s="60"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A94" s="56"/>
+      <c r="B94" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="C92" s="117">
+      <c r="C94" s="117">
         <f>B26/IF(B6=0,1,B6)</f>
         <v>0</v>
       </c>
-      <c r="D92" s="170" t="s">
+      <c r="D94" s="169" t="s">
         <v>120</v>
       </c>
-      <c r="E92" s="62">
-        <f>IF(C92&gt;0.25,0,IF(C92&gt;0.2,1,IF(C92&gt;0.15,2,IF(C92&gt;0.1,3,IF(C92&gt;0.05,4,5)))))</f>
+      <c r="E94" s="62">
+        <f>IF(C94&gt;0.25,0,IF(C94&gt;0.2,1,IF(C94&gt;0.15,2,IF(C94&gt;0.1,3,IF(C94&gt;0.05,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F92" s="60"/>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A93" s="168" t="s">
+      <c r="F94" s="60"/>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A95" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="172" t="s">
+      <c r="B95" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="119">
+      <c r="C95" s="119">
         <f>B37/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D93" s="173" t="s">
+      <c r="D95" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="E93" s="62">
-        <f>IF(C93&gt;0.2,5,IF(C93&gt;0.1,3,IF(C93&gt;0.05,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F93" s="60"/>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="33" spans="1:6">
-      <c r="A94" s="168"/>
-      <c r="B94" s="172" t="s">
+      <c r="E95" s="62">
+        <f>IF(C95&gt;0.2,5,IF(C95&gt;0.1,3,IF(C95&gt;0.05,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="60"/>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="33" spans="1:6">
+      <c r="A96" s="56"/>
+      <c r="B96" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="120" t="s">
+      <c r="C96" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="D94" s="171" t="s">
+      <c r="D96" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="E94" s="62" t="s">
+      <c r="E96" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="60"/>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A95" s="51" t="s">
+      <c r="F96" s="60"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A97" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="B95" s="63"/>
-      <c r="C95" s="121"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="55">
-        <f>SUM(E96:E100)/20*25</f>
+      <c r="B97" s="63"/>
+      <c r="C97" s="121"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="55">
+        <f>SUM(E98:E102)/20*25</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A96" s="66" t="s">
+    <row r="98" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A98" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="174" t="s">
+      <c r="B98" s="173" t="s">
         <v>128</v>
       </c>
-      <c r="C96" s="122">
+      <c r="C98" s="122">
         <f>(B5+B6-B25-B26-B27)/IF((B5+B6)=0,1,B5+B6)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="175" t="s">
+      <c r="D98" s="174" t="s">
         <v>129</v>
       </c>
-      <c r="E96" s="123">
-        <f>IF(C96&gt;0.55,5,IF(C96&gt;0.5,4,IF(C96&gt;0.45,3,IF(C96&gt;0.4,2,IF(C96&gt;0.35,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="69"/>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A97" s="66"/>
-      <c r="B97" s="174" t="s">
+      <c r="E98" s="123">
+        <f>IF(C98&gt;0.55,5,IF(C98&gt;0.5,4,IF(C98&gt;0.45,3,IF(C98&gt;0.4,2,IF(C98&gt;0.35,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="69"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A99" s="66"/>
+      <c r="B99" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="C97" s="122">
+      <c r="C99" s="122">
         <f>B28/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="175" t="s">
+      <c r="D99" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="123">
-        <f>IF(C97&gt;0.35,1,IF(C97&gt;0.3,2,IF(C97&gt;0.28,3,IF(C97&gt;0.25,3,IF(C97&gt;0.2,5,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F97" s="69"/>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A98" s="176" t="s">
+      <c r="E99" s="123">
+        <f>IF(C99&gt;0.35,1,IF(C99&gt;0.3,2,IF(C99&gt;0.28,3,IF(C99&gt;0.25,3,IF(C99&gt;0.2,5,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="69"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A100" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="B98" s="174" t="s">
+      <c r="B100" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="124">
+      <c r="C100" s="124">
         <f>B23/IF(B3=0,1,B3)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="177" t="s">
+      <c r="D100" s="175" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="123">
-        <f>IF(C98&gt;1,5,IF(C98&gt;0.95,4,IF(C98&gt;0.9,3,IF(C98&gt;0.85,2,IF(C98&gt;0.8,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="69"/>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A99" s="176"/>
-      <c r="B99" s="178" t="s">
+      <c r="E100" s="123">
+        <f>IF(C100&gt;1,5,IF(C100&gt;0.95,4,IF(C100&gt;0.9,3,IF(C100&gt;0.85,2,IF(C100&gt;0.8,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="69"/>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A101" s="66"/>
+      <c r="B101" s="176" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="125">
+      <c r="C101" s="125">
         <f>B29</f>
         <v>0</v>
       </c>
-      <c r="D99" s="179" t="s">
+      <c r="D101" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="E99" s="123" t="s">
+      <c r="E101" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="F99" s="69"/>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A100" s="176" t="s">
+      <c r="F101" s="69"/>
+    </row>
+    <row r="102" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A102" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="178" t="s">
+      <c r="B102" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="C100" s="122">
+      <c r="C102" s="122">
         <f>B22/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="175" t="s">
+      <c r="D102" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="E100" s="123">
-        <f>IF(C100&gt;0.7,0,IF(C100&gt;0.6,1,IF(C100&gt;0.5,2,IF(C100&gt;0.4,3,IF(C100&gt;0.3,4,5)))))</f>
+      <c r="E102" s="123">
+        <f>IF(C102&gt;0.7,0,IF(C102&gt;0.6,1,IF(C102&gt;0.5,2,IF(C102&gt;0.4,3,IF(C102&gt;0.3,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F100" s="69"/>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A101" s="51" t="s">
+      <c r="F102" s="69"/>
+    </row>
+    <row r="103" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A103" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="B101" s="52"/>
-      <c r="C101" s="126"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="55">
-        <f>SUM(E102:E115)/55*15</f>
+      <c r="B103" s="52"/>
+      <c r="C103" s="126"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="55">
+        <f>SUM(E104:E117)/55*15</f>
         <v>0.818181818181818</v>
       </c>
     </row>
-    <row r="102" s="3" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A102" s="180" t="s">
+    <row r="104" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A104" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="B102" s="181" t="s">
+      <c r="B104" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="C102" s="127">
+      <c r="C104" s="127">
         <f>B52/IF(B32=0,1,B32)</f>
         <v>0</v>
       </c>
-      <c r="D102" s="182" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" s="81">
-        <f>IF(C102&gt;0.95,5,IF(C102&gt;0.9,4,IF(C102&gt;0.85,3,IF(C102&gt;0.8,2,IF(C102&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="77"/>
-    </row>
-    <row r="103" s="3" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A103" s="180" t="s">
-        <v>143</v>
-      </c>
-      <c r="B103" s="181" t="s">
-        <v>144</v>
-      </c>
-      <c r="C103" s="127">
-        <f>B57/IF(B56=0,1,B56)</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="182" t="s">
-        <v>142</v>
-      </c>
-      <c r="E103" s="81">
-        <f>IF(C103&gt;0.95,5,IF(C103&gt;0.9,4,IF(C103&gt;0.85,3,IF(C103&gt;0.8,2,IF(C103&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="77"/>
-    </row>
-    <row r="104" s="3" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A104" s="180"/>
-      <c r="B104" s="181" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="127">
-        <f>B59/IF(B58=0,1,B58)</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="182" t="s">
+      <c r="D104" s="179" t="s">
         <v>142</v>
       </c>
       <c r="E104" s="81">
@@ -7273,181 +7216,183 @@
       </c>
       <c r="F104" s="77"/>
     </row>
-    <row r="105" s="3" customFormat="1" ht="33" spans="1:6">
-      <c r="A105" s="180"/>
-      <c r="B105" s="183" t="s">
+    <row r="105" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A105" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="178" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="127">
+        <f>B57/IF(B56=0,1,B56)</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="E105" s="81">
+        <f>IF(C105&gt;0.95,5,IF(C105&gt;0.9,4,IF(C105&gt;0.85,3,IF(C105&gt;0.8,2,IF(C105&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="77"/>
+    </row>
+    <row r="106" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A106" s="74"/>
+      <c r="B106" s="178" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="127">
+        <f>B59/IF(B58=0,1,B58)</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" s="81">
+        <f>IF(C106&gt;0.95,5,IF(C106&gt;0.9,4,IF(C106&gt;0.85,3,IF(C106&gt;0.8,2,IF(C106&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="77"/>
+    </row>
+    <row r="107" s="3" customFormat="1" ht="33" spans="1:6">
+      <c r="A107" s="74"/>
+      <c r="B107" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C105" s="128" t="s">
+      <c r="C107" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="184" t="s">
+      <c r="D107" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="E105" s="81" t="s">
+      <c r="E107" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="F105" s="77"/>
-    </row>
-    <row r="106" s="3" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A106" s="180" t="s">
+      <c r="F107" s="77"/>
+    </row>
+    <row r="108" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A108" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B106" s="181" t="s">
+      <c r="B108" s="178" t="s">
         <v>148</v>
       </c>
-      <c r="C106" s="129">
+      <c r="C108" s="129">
         <f>B60/100</f>
         <v>0</v>
       </c>
-      <c r="D106" s="185" t="s">
+      <c r="D108" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="E106" s="81">
-        <f>IF(C106&gt;1.08,0,IF(C106&gt;1.04,1,IF(C106&gt;1,3,IF(C106&gt;0.96,5,IF(C106&gt;0.92,3,IF(C106&gt;0.88,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="F106" s="77"/>
-    </row>
-    <row r="107" s="3" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A107" s="180"/>
-      <c r="B107" s="181" t="s">
+      <c r="E108" s="81">
+        <f>IF(C108&gt;1.08,0,IF(C108&gt;1.04,1,IF(C108&gt;1,3,IF(C108&gt;0.96,5,IF(C108&gt;0.92,3,IF(C108&gt;0.88,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="77"/>
+    </row>
+    <row r="109" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A109" s="74"/>
+      <c r="B109" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="129">
+      <c r="C109" s="129">
         <f>B51/IF(B34=0,1,B34)</f>
         <v>0</v>
       </c>
-      <c r="D107" s="182" t="s">
+      <c r="D109" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="E107" s="81">
-        <f>IF(C107&gt;0.95,5,IF(C107&gt;0.9,4,IF(C107&gt;0.85,3,IF(C107&gt;0.8,2,IF(C107&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F107" s="77"/>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A108" s="180" t="s">
+      <c r="E109" s="81">
+        <f>IF(C109&gt;0.95,5,IF(C109&gt;0.9,4,IF(C109&gt;0.85,3,IF(C109&gt;0.8,2,IF(C109&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="77"/>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="99" spans="1:6">
+      <c r="A110" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B108" s="181" t="s">
+      <c r="B110" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="127">
+      <c r="C110" s="127">
         <f>B48/(IF(B18=0,1,B18)/(1500*12))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="182" t="s">
+      <c r="D110" s="179" t="s">
         <v>154</v>
       </c>
-      <c r="E108" s="81">
-        <f>IF(C108&gt;0.9,5,IF(C108&gt;0.7,4,IF(C108&gt;0.5,3,IF(C108&gt;0.3,2,IF(C108&gt;0.1,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F108" s="80"/>
-    </row>
-    <row r="109" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A109" s="180"/>
-      <c r="B109" s="181" t="s">
+      <c r="E110" s="81">
+        <f>IF(C110&gt;0.9,5,IF(C110&gt;0.7,4,IF(C110&gt;0.5,3,IF(C110&gt;0.3,2,IF(C110&gt;0.1,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="80"/>
+    </row>
+    <row r="111" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A111" s="74"/>
+      <c r="B111" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="C109" s="127">
+      <c r="C111" s="127">
         <f>B49/IF(B48=0,1,B48)</f>
         <v>0</v>
       </c>
-      <c r="D109" s="182" t="s">
+      <c r="D111" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="E109" s="81">
-        <f>IF(C109&gt;0.2,3,IF(C109&gt;0.1,5,IF(C109&gt;=0,1,0)))</f>
+      <c r="E111" s="81">
+        <f>IF(C111&gt;0.2,3,IF(C111&gt;0.1,5,IF(C111&gt;=0,1,0)))</f>
         <v>1</v>
       </c>
-      <c r="F109" s="80"/>
-    </row>
-    <row r="110" s="2" customFormat="1" ht="33" spans="1:6">
-      <c r="A110" s="180"/>
-      <c r="B110" s="183" t="s">
+      <c r="F111" s="80"/>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="33" spans="1:6">
+      <c r="A112" s="74"/>
+      <c r="B112" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="C110" s="127">
+      <c r="C112" s="127">
         <f>B50</f>
         <v>0</v>
       </c>
-      <c r="D110" s="186" t="s">
+      <c r="D112" s="182" t="s">
         <v>114</v>
       </c>
-      <c r="E110" s="81" t="s">
+      <c r="E112" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="F110" s="80"/>
-    </row>
-    <row r="111" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A111" s="180" t="s">
+      <c r="F112" s="80"/>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A113" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="B111" s="181" t="s">
+      <c r="B113" s="178" t="s">
         <v>159</v>
       </c>
-      <c r="C111" s="127">
+      <c r="C113" s="127">
         <f>(B42-B41)/ABS(IF(B41=0,1,B41))</f>
         <v>0</v>
       </c>
-      <c r="D111" s="182" t="s">
+      <c r="D113" s="179" t="s">
         <v>160</v>
       </c>
-      <c r="E111" s="81">
-        <f>IF(C111&gt;0.05,0,IF(C111&gt;0,1,IF(C111&gt;-0.1,2,IF(C111&gt;-0.2,3,IF(C111&gt;-0.3,4,5)))))</f>
+      <c r="E113" s="81">
+        <f>IF(C113&gt;0.05,0,IF(C113&gt;0,1,IF(C113&gt;-0.1,2,IF(C113&gt;-0.2,3,IF(C113&gt;-0.3,4,5)))))</f>
         <v>2</v>
       </c>
-      <c r="F111" s="80"/>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A112" s="180"/>
-      <c r="B112" s="181" t="s">
+      <c r="F113" s="80"/>
+    </row>
+    <row r="114" s="2" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A114" s="74"/>
+      <c r="B114" s="178" t="s">
         <v>161</v>
       </c>
-      <c r="C112" s="127">
+      <c r="C114" s="127">
         <f>B44/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
-      <c r="D112" s="182" t="s">
-        <v>162</v>
-      </c>
-      <c r="E112" s="81">
-        <f>IF(C112&gt;0.95,5,IF(C112&gt;0.9,4,IF(C112&gt;0.85,3,IF(C112&gt;0.8,2,IF(C112&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F112" s="80"/>
-    </row>
-    <row r="113" s="2" customFormat="1" ht="64.5" spans="1:6">
-      <c r="A113" s="180"/>
-      <c r="B113" s="187" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" s="130">
-        <f>B46/IF(B42=0,1,B42)</f>
-        <v>0</v>
-      </c>
-      <c r="D113" s="182" t="s">
-        <v>164</v>
-      </c>
-      <c r="E113" s="131">
-        <f>IF(C113&gt;0.15,5,IF(C113&gt;0.1,3,IF(C113&gt;0.05,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F113" s="80"/>
-    </row>
-    <row r="114" s="2" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A114" s="180"/>
-      <c r="B114" s="181" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114" s="127">
-        <f>B45/IF(B42=0,1,B42)</f>
-        <v>0</v>
-      </c>
-      <c r="D114" s="182" t="s">
+      <c r="D114" s="179" t="s">
         <v>162</v>
       </c>
       <c r="E114" s="81">
@@ -7456,199 +7401,219 @@
       </c>
       <c r="F114" s="80"/>
     </row>
-    <row r="115" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A115" s="180"/>
-      <c r="B115" s="187" t="s">
+    <row r="115" s="2" customFormat="1" ht="64.5" spans="1:6">
+      <c r="A115" s="74"/>
+      <c r="B115" s="183" t="s">
+        <v>163</v>
+      </c>
+      <c r="C115" s="130">
+        <f>B46/IF(B42=0,1,B42)</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="179" t="s">
+        <v>164</v>
+      </c>
+      <c r="E115" s="131">
+        <f>IF(C115&gt;0.15,5,IF(C115&gt;0.1,3,IF(C115&gt;0.05,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="80"/>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A116" s="74"/>
+      <c r="B116" s="178" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="127">
+        <f>B45/IF(B42=0,1,B42)</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="179" t="s">
+        <v>162</v>
+      </c>
+      <c r="E116" s="81">
+        <f>IF(C116&gt;0.95,5,IF(C116&gt;0.9,4,IF(C116&gt;0.85,3,IF(C116&gt;0.8,2,IF(C116&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="80"/>
+    </row>
+    <row r="117" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A117" s="74"/>
+      <c r="B117" s="183" t="s">
         <v>166</v>
       </c>
-      <c r="C115" s="130">
+      <c r="C117" s="130">
         <f>B47</f>
         <v>0</v>
       </c>
-      <c r="D115" s="184" t="s">
+      <c r="D117" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="E115" s="81" t="s">
+      <c r="E117" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="F115" s="80"/>
-    </row>
-    <row r="116" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A116" s="51" t="s">
+      <c r="F117" s="80"/>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A118" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="B116" s="52"/>
-      <c r="C116" s="126"/>
-      <c r="D116" s="72"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="55">
-        <f>SUM(E117:E124)/35*10</f>
+      <c r="B118" s="52"/>
+      <c r="C118" s="126"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="73"/>
+      <c r="F118" s="55">
+        <f>SUM(E119:E126)/35*10</f>
         <v>7.71428571428571</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A117" s="188" t="s">
+    <row r="119" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A119" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="B117" s="189" t="s">
+      <c r="B119" s="184" t="s">
         <v>168</v>
       </c>
-      <c r="C117" s="132">
+      <c r="C119" s="132">
         <f>B62</f>
         <v>0</v>
       </c>
-      <c r="D117" s="190" t="s">
+      <c r="D119" s="185" t="s">
         <v>169</v>
       </c>
-      <c r="E117" s="133">
-        <f>IF(C117&gt;5,0,IF(C117&gt;3,3,IF(C117&gt;1,4,5)))</f>
+      <c r="E119" s="133">
+        <f>IF(C119&gt;5,0,IF(C119&gt;3,3,IF(C119&gt;1,4,5)))</f>
         <v>5</v>
       </c>
-      <c r="F117" s="86"/>
-    </row>
-    <row r="118" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A118" s="191" t="s">
+      <c r="F119" s="86"/>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A120" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="B118" s="189" t="s">
+      <c r="B120" s="184" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="134">
+      <c r="C120" s="134">
         <f>B63/IF(B69=0,1,B69)</f>
         <v>0</v>
       </c>
-      <c r="D118" s="192" t="s">
+      <c r="D120" s="186" t="s">
         <v>172</v>
       </c>
-      <c r="E118" s="133">
-        <f>IF(C118&gt;0.3,0,IF(C118&gt;0.2,1,IF(C118&gt;0.1,3,5)))</f>
+      <c r="E120" s="133">
+        <f>IF(C120&gt;0.3,0,IF(C120&gt;0.2,1,IF(C120&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F118" s="86"/>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="45" spans="1:6">
-      <c r="A119" s="191"/>
-      <c r="B119" s="189" t="s">
+      <c r="F120" s="86"/>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="45" spans="1:6">
+      <c r="A121" s="87"/>
+      <c r="B121" s="184" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="134">
+      <c r="C121" s="134">
         <f>B72/IF(B71=0,1,B71)</f>
         <v>0</v>
       </c>
-      <c r="D119" s="190" t="s">
+      <c r="D121" s="185" t="s">
         <v>174</v>
       </c>
-      <c r="E119" s="133">
-        <f>IF(C119&gt;0.6,1,IF(C119&gt;0.2,3,5))</f>
+      <c r="E121" s="133">
+        <f>IF(C121&gt;0.6,1,IF(C121&gt;0.2,3,5))</f>
         <v>5</v>
       </c>
-      <c r="F119" s="86"/>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A120" s="193" t="s">
+      <c r="F121" s="86"/>
+    </row>
+    <row r="122" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A122" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="B120" s="194" t="s">
+      <c r="B122" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="C120" s="135">
+      <c r="C122" s="135">
         <f>B64/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D120" s="192" t="s">
+      <c r="D122" s="186" t="s">
         <v>177</v>
       </c>
-      <c r="E120" s="133">
-        <f>IF(C120&gt;0.15,0,IF(C120&gt;0.1,1,IF(C120&gt;0.05,3,5)))</f>
+      <c r="E122" s="133">
+        <f>IF(C122&gt;0.15,0,IF(C122&gt;0.1,1,IF(C122&gt;0.05,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F120" s="86"/>
-    </row>
-    <row r="121" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A121" s="193"/>
-      <c r="B121" s="194" t="s">
+      <c r="F122" s="86"/>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A123" s="83"/>
+      <c r="B123" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="C121" s="135">
+      <c r="C123" s="135">
         <f>B67/(IF(B66=0,1,B66)/6)</f>
         <v>0</v>
       </c>
-      <c r="D121" s="192" t="s">
+      <c r="D123" s="186" t="s">
         <v>179</v>
       </c>
-      <c r="E121" s="133">
-        <f>IF(C121&gt;1,5,IF(C121&gt;0.8,3,1))</f>
+      <c r="E123" s="133">
+        <f>IF(C123&gt;1,5,IF(C123&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F121" s="86"/>
-    </row>
-    <row r="122" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A122" s="193"/>
-      <c r="B122" s="194" t="s">
+      <c r="F123" s="86"/>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A124" s="83"/>
+      <c r="B124" s="187" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="132">
+      <c r="C124" s="132">
         <f>B68/(IF(B66=0,1,B66)/30)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="192" t="s">
+      <c r="D124" s="186" t="s">
         <v>181</v>
       </c>
-      <c r="E122" s="133">
-        <f>IF(C122&gt;1,5,IF(C122&gt;0.8,3,1))</f>
+      <c r="E124" s="133">
+        <f>IF(C124&gt;1,5,IF(C124&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F122" s="86"/>
-    </row>
-    <row r="123" s="2" customFormat="1" ht="19.5" hidden="1" spans="1:6">
-      <c r="A123" s="193"/>
-      <c r="B123" s="194" t="s">
+      <c r="F124" s="86"/>
+    </row>
+    <row r="125" s="2" customFormat="1" ht="19.5" hidden="1" spans="1:6">
+      <c r="A125" s="83"/>
+      <c r="B125" s="187" t="s">
         <v>182</v>
       </c>
-      <c r="C123" s="132"/>
-      <c r="D123" s="195" t="s">
+      <c r="C125" s="132"/>
+      <c r="D125" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="E123" s="133" t="s">
+      <c r="E125" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="F123" s="86"/>
-    </row>
-    <row r="124" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A124" s="196" t="s">
+      <c r="F125" s="86"/>
+    </row>
+    <row r="126" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A126" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="B124" s="194" t="s">
+      <c r="B126" s="187" t="s">
         <v>184</v>
       </c>
-      <c r="C124" s="136">
+      <c r="C126" s="136">
         <f>B65/IF(B70=0,1,B70)</f>
         <v>0</v>
       </c>
-      <c r="D124" s="192" t="s">
+      <c r="D126" s="186" t="s">
         <v>172</v>
       </c>
-      <c r="E124" s="137">
-        <f>IF(C124&gt;0.3,0,IF(C124&gt;0.2,1,IF(C124&gt;0.1,3,5)))</f>
+      <c r="E126" s="137">
+        <f>IF(C126&gt;0.3,0,IF(C126&gt;0.2,1,IF(C126&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F124" s="86"/>
-    </row>
-    <row r="125" s="2" customFormat="1" spans="1:6">
-      <c r="A125" s="4"/>
-      <c r="B125" s="93"/>
-      <c r="C125" s="138"/>
-      <c r="D125" s="94"/>
-      <c r="E125" s="95"/>
-      <c r="F125" s="139"/>
-    </row>
-    <row r="126" s="2" customFormat="1" spans="1:6">
-      <c r="A126" s="4"/>
-      <c r="B126" s="93"/>
-      <c r="C126" s="138"/>
-      <c r="D126" s="94"/>
-      <c r="E126" s="95"/>
-      <c r="F126" s="139"/>
+      <c r="F126" s="86"/>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:6">
       <c r="A127" s="4"/>
@@ -7898,17 +7863,21 @@
       <c r="E157" s="95"/>
       <c r="F157" s="139"/>
     </row>
-    <row r="158" spans="2:5">
-      <c r="B158" s="97"/>
-      <c r="C158" s="140"/>
-      <c r="D158" s="98"/>
-      <c r="E158" s="99"/>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="97"/>
-      <c r="C159" s="140"/>
-      <c r="D159" s="98"/>
-      <c r="E159" s="99"/>
+    <row r="158" s="2" customFormat="1" spans="1:6">
+      <c r="A158" s="4"/>
+      <c r="B158" s="93"/>
+      <c r="C158" s="138"/>
+      <c r="D158" s="94"/>
+      <c r="E158" s="95"/>
+      <c r="F158" s="139"/>
+    </row>
+    <row r="159" s="2" customFormat="1" spans="1:6">
+      <c r="A159" s="4"/>
+      <c r="B159" s="93"/>
+      <c r="C159" s="138"/>
+      <c r="D159" s="94"/>
+      <c r="E159" s="95"/>
+      <c r="F159" s="139"/>
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="97"/>
@@ -8432,25 +8401,37 @@
       <c r="D246" s="98"/>
       <c r="E246" s="99"/>
     </row>
+    <row r="247" spans="2:5">
+      <c r="B247" s="97"/>
+      <c r="C247" s="140"/>
+      <c r="D247" s="98"/>
+      <c r="E247" s="99"/>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" s="97"/>
+      <c r="C248" s="140"/>
+      <c r="D248" s="98"/>
+      <c r="E248" s="99"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A90:A92"/>
     <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A95:A96"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9267,7 +9248,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="198" t="s">
+      <c r="D76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="44">
@@ -9285,7 +9266,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="198" t="s">
+      <c r="D77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="44">
@@ -9303,7 +9284,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="199" t="s">
+      <c r="D78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="44">
@@ -9321,7 +9302,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="199" t="s">
+      <c r="D79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="44">
@@ -9339,7 +9320,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="44">
@@ -9357,7 +9338,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="199" t="s">
+      <c r="D81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="44">
@@ -9375,7 +9356,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="44">
@@ -9393,7 +9374,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="44">
@@ -11775,7 +11756,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="198" t="s">
+      <c r="D76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="44">
@@ -11793,7 +11774,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="198" t="s">
+      <c r="D77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="44">
@@ -11811,7 +11792,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="199" t="s">
+      <c r="D78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="44">
@@ -11829,7 +11810,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="199" t="s">
+      <c r="D79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="44">
@@ -11847,7 +11828,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="44">
@@ -11865,7 +11846,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="199" t="s">
+      <c r="D81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="44">
@@ -11883,7 +11864,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="44">
@@ -11901,7 +11882,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="44">
@@ -14283,7 +14264,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="198" t="s">
+      <c r="D76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="44">
@@ -14301,7 +14282,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="198" t="s">
+      <c r="D77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="44">
@@ -14319,7 +14300,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="199" t="s">
+      <c r="D78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="44">
@@ -14337,7 +14318,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="199" t="s">
+      <c r="D79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="44">
@@ -14355,7 +14336,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="44">
@@ -14373,7 +14354,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="199" t="s">
+      <c r="D81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="44">
@@ -14391,7 +14372,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="44">
@@ -14409,7 +14390,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="44">
@@ -16690,11 +16671,11 @@
       <c r="B76" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="C76" s="198" t="s">
+      <c r="C76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="D76" s="44">
-        <f>'1月'!E76+'2月'!E76+'3月'!E76+'4月'!E76+'5月'!E76+'6月'!E76+'7月'!E76+'8月'!E76+'9月'!E76+'10月'!E76+'11月'!E76+'12月'!E76</f>
+        <f>'1月'!E78+'2月'!E76+'3月'!E76+'4月'!E76+'5月'!E76+'6月'!E76+'7月'!E76+'8月'!E76+'9月'!E76+'10月'!E76+'11月'!E76+'12月'!E76</f>
         <v>24</v>
       </c>
       <c r="E76" s="45"/>
@@ -16704,11 +16685,11 @@
       <c r="B77" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="C77" s="198" t="s">
+      <c r="C77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="D77" s="44">
-        <f>'1月'!E77+'2月'!E77+'3月'!E77+'4月'!E77+'5月'!E77+'6月'!E77+'7月'!E77+'8月'!E77+'9月'!E77+'10月'!E77+'11月'!E77+'12月'!E77</f>
+        <f>'1月'!E79+'2月'!E77+'3月'!E77+'4月'!E77+'5月'!E77+'6月'!E77+'7月'!E77+'8月'!E77+'9月'!E77+'10月'!E77+'11月'!E77+'12月'!E77</f>
         <v>24</v>
       </c>
       <c r="E77" s="45"/>
@@ -16718,11 +16699,11 @@
       <c r="B78" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="C78" s="199" t="s">
+      <c r="C78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="D78" s="44">
-        <f>'1月'!E78+'2月'!E78+'3月'!E78+'4月'!E78+'5月'!E78+'6月'!E78+'7月'!E78+'8月'!E78+'9月'!E78+'10月'!E78+'11月'!E78+'12月'!E78</f>
+        <f>'1月'!E80+'2月'!E78+'3月'!E78+'4月'!E78+'5月'!E78+'6月'!E78+'7月'!E78+'8月'!E78+'9月'!E78+'10月'!E78+'11月'!E78+'12月'!E78</f>
         <v>24</v>
       </c>
       <c r="E78" s="48"/>
@@ -16732,11 +16713,11 @@
       <c r="B79" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C79" s="199" t="s">
+      <c r="C79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="D79" s="44">
-        <f>'1月'!E79+'2月'!E79+'3月'!E79+'4月'!E79+'5月'!E79+'6月'!E79+'7月'!E79+'8月'!E79+'9月'!E79+'10月'!E79+'11月'!E79+'12月'!E79</f>
+        <f>'1月'!E81+'2月'!E79+'3月'!E79+'4月'!E79+'5月'!E79+'6月'!E79+'7月'!E79+'8月'!E79+'9月'!E79+'10月'!E79+'11月'!E79+'12月'!E79</f>
         <v>24</v>
       </c>
       <c r="E79" s="48"/>
@@ -16746,11 +16727,11 @@
       <c r="B80" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="C80" s="199" t="s">
+      <c r="C80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="D80" s="44">
-        <f>'1月'!E80+'2月'!E80+'3月'!E80+'4月'!E80+'5月'!E80+'6月'!E80+'7月'!E80+'8月'!E80+'9月'!E80+'10月'!E80+'11月'!E80+'12月'!E80</f>
+        <f>'1月'!E82+'2月'!E80+'3月'!E80+'4月'!E80+'5月'!E80+'6月'!E80+'7月'!E80+'8月'!E80+'9月'!E80+'10月'!E80+'11月'!E80+'12月'!E80</f>
         <v>24</v>
       </c>
       <c r="E80" s="48"/>
@@ -16760,11 +16741,11 @@
       <c r="B81" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="C81" s="199" t="s">
+      <c r="C81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="D81" s="44">
-        <f>'1月'!E81+'2月'!E81+'3月'!E81+'4月'!E81+'5月'!E81+'6月'!E81+'7月'!E81+'8月'!E81+'9月'!E81+'10月'!E81+'11月'!E81+'12月'!E81</f>
+        <f>'1月'!E83+'2月'!E81+'3月'!E81+'4月'!E81+'5月'!E81+'6月'!E81+'7月'!E81+'8月'!E81+'9月'!E81+'10月'!E81+'11月'!E81+'12月'!E81</f>
         <v>24</v>
       </c>
       <c r="E81" s="48"/>
@@ -16774,11 +16755,11 @@
       <c r="B82" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="198" t="s">
+      <c r="C82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="D82" s="44">
-        <f>'1月'!E82+'2月'!E82+'3月'!E82+'4月'!E82+'5月'!E82+'6月'!E82+'7月'!E82+'8月'!E82+'9月'!E82+'10月'!E82+'11月'!E82+'12月'!E82</f>
+        <f>'1月'!E84+'2月'!E82+'3月'!E82+'4月'!E82+'5月'!E82+'6月'!E82+'7月'!E82+'8月'!E82+'9月'!E82+'10月'!E82+'11月'!E82+'12月'!E82</f>
         <v>24</v>
       </c>
       <c r="E82" s="48"/>
@@ -16788,11 +16769,11 @@
       <c r="B83" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="C83" s="198" t="s">
+      <c r="C83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="D83" s="44">
-        <f>'1月'!E83+'2月'!E83+'3月'!E83+'4月'!E83+'5月'!E83+'6月'!E83+'7月'!E83+'8月'!E83+'9月'!E83+'10月'!E83+'11月'!E83+'12月'!E83</f>
+        <f>'1月'!E85+'2月'!E83+'3月'!E83+'4月'!E83+'5月'!E83+'6月'!E83+'7月'!E83+'8月'!E83+'9月'!E83+'10月'!E83+'11月'!E83+'12月'!E83</f>
         <v>24</v>
       </c>
       <c r="E83" s="48"/>
@@ -16808,7 +16789,7 @@
         <v>197</v>
       </c>
       <c r="D84" s="44">
-        <f>'1月'!E84+'2月'!E84+'3月'!E84+'4月'!E84+'5月'!E84+'6月'!E84+'7月'!E84+'8月'!E84+'9月'!E84+'10月'!E84+'11月'!E84+'12月'!E84</f>
+        <f>'1月'!E86+'2月'!E84+'3月'!E84+'4月'!E84+'5月'!E84+'6月'!E84+'7月'!E84+'8月'!E84+'9月'!E84+'10月'!E84+'11月'!E84+'12月'!E84</f>
         <v>0</v>
       </c>
       <c r="E84" s="48"/>
@@ -16822,7 +16803,7 @@
         <v>197</v>
       </c>
       <c r="D85" s="44">
-        <f>'1月'!E85+'2月'!E85+'3月'!E85+'4月'!E85+'5月'!E85+'6月'!E85+'7月'!E85+'8月'!E85+'9月'!E85+'10月'!E85+'11月'!E85+'12月'!E85</f>
+        <f>'1月'!E87+'2月'!E85+'3月'!E85+'4月'!E85+'5月'!E85+'6月'!E85+'7月'!E85+'8月'!E85+'9月'!E85+'10月'!E85+'11月'!E85+'12月'!E85</f>
         <v>0</v>
       </c>
       <c r="E85" s="48"/>
@@ -16838,7 +16819,7 @@
         <v>200</v>
       </c>
       <c r="D86" s="44">
-        <f>'1月'!E86+'2月'!E86+'3月'!E86+'4月'!E86+'5月'!E86+'6月'!E86+'7月'!E86+'8月'!E86+'9月'!E86+'10月'!E86+'11月'!E86+'12月'!E86</f>
+        <f>'1月'!E88+'2月'!E86+'3月'!E86+'4月'!E86+'5月'!E86+'6月'!E86+'7月'!E86+'8月'!E86+'9月'!E86+'10月'!E86+'11月'!E86+'12月'!E86</f>
         <v>60</v>
       </c>
       <c r="E86" s="48"/>
@@ -16866,7 +16847,7 @@
         <v>203</v>
       </c>
       <c r="D88" s="59">
-        <f>'1月'!E88+'2月'!E88+'3月'!E88+'4月'!E88+'5月'!E88+'6月'!E88+'7月'!E88+'8月'!E88+'9月'!E88+'10月'!E88+'11月'!E88+'12月'!E88</f>
+        <f>'1月'!E90+'2月'!E88+'3月'!E88+'4月'!E88+'5月'!E88+'6月'!E88+'7月'!E88+'8月'!E88+'9月'!E88+'10月'!E88+'11月'!E88+'12月'!E88</f>
         <v>0</v>
       </c>
       <c r="E88" s="60"/>
@@ -16880,7 +16861,7 @@
         <v>205</v>
       </c>
       <c r="D89" s="59">
-        <f>'1月'!E89+'2月'!E89+'3月'!E89+'4月'!E89+'5月'!E89+'6月'!E89+'7月'!E89+'8月'!E89+'9月'!E89+'10月'!E89+'11月'!E89+'12月'!E89</f>
+        <f>'1月'!E91+'2月'!E89+'3月'!E89+'4月'!E89+'5月'!E89+'6月'!E89+'7月'!E89+'8月'!E89+'9月'!E89+'10月'!E89+'11月'!E89+'12月'!E89</f>
         <v>0</v>
       </c>
       <c r="E89" s="60"/>
@@ -16909,7 +16890,7 @@
         <v>210</v>
       </c>
       <c r="D91" s="59">
-        <f>'1月'!E91+'2月'!E91+'3月'!E91+'4月'!E91+'5月'!E91+'6月'!E91+'7月'!E91+'8月'!E91+'9月'!E91+'10月'!E91+'11月'!E91+'12月'!E91</f>
+        <f>'1月'!E93+'2月'!E91+'3月'!E91+'4月'!E91+'5月'!E91+'6月'!E91+'7月'!E91+'8月'!E91+'9月'!E91+'10月'!E91+'11月'!E91+'12月'!E91</f>
         <v>60</v>
       </c>
       <c r="E91" s="60"/>
@@ -16923,7 +16904,7 @@
         <v>212</v>
       </c>
       <c r="D92" s="59">
-        <f>'1月'!E92+'2月'!E92+'3月'!E92+'4月'!E92+'5月'!E92+'6月'!E92+'7月'!E92+'8月'!E92+'9月'!E92+'10月'!E92+'11月'!E92+'12月'!E92</f>
+        <f>'1月'!E94+'2月'!E92+'3月'!E92+'4月'!E92+'5月'!E92+'6月'!E92+'7月'!E92+'8月'!E92+'9月'!E92+'10月'!E92+'11月'!E92+'12月'!E92</f>
         <v>60</v>
       </c>
       <c r="E92" s="60"/>
@@ -16939,7 +16920,7 @@
         <v>215</v>
       </c>
       <c r="D93" s="59">
-        <f>'1月'!E93+'2月'!E93+'3月'!E93+'4月'!E93+'5月'!E93+'6月'!E93+'7月'!E93+'8月'!E93+'9月'!E93+'10月'!E93+'11月'!E93+'12月'!E93</f>
+        <f>'1月'!E95+'2月'!E93+'3月'!E93+'4月'!E93+'5月'!E93+'6月'!E93+'7月'!E93+'8月'!E93+'9月'!E93+'10月'!E93+'11月'!E93+'12月'!E93</f>
         <v>0</v>
       </c>
       <c r="E93" s="60"/>
@@ -16980,7 +16961,7 @@
         <v>218</v>
       </c>
       <c r="D96" s="68">
-        <f>'1月'!E96+'2月'!E96+'3月'!E96+'4月'!E96+'5月'!E96+'6月'!E96+'7月'!E96+'8月'!E96+'9月'!E96+'10月'!E96+'11月'!E96+'12月'!E96</f>
+        <f>'1月'!E98+'2月'!E96+'3月'!E96+'4月'!E96+'5月'!E96+'6月'!E96+'7月'!E96+'8月'!E96+'9月'!E96+'10月'!E96+'11月'!E96+'12月'!E96</f>
         <v>0</v>
       </c>
       <c r="E96" s="69"/>
@@ -16994,7 +16975,7 @@
         <v>220</v>
       </c>
       <c r="D97" s="68">
-        <f>'1月'!E97+'2月'!E97+'3月'!E97+'4月'!E97+'5月'!E97+'6月'!E97+'7月'!E97+'8月'!E97+'9月'!E97+'10月'!E97+'11月'!E97+'12月'!E97</f>
+        <f>'1月'!E99+'2月'!E97+'3月'!E97+'4月'!E97+'5月'!E97+'6月'!E97+'7月'!E97+'8月'!E97+'9月'!E97+'10月'!E97+'11月'!E97+'12月'!E97</f>
         <v>0</v>
       </c>
       <c r="E97" s="69"/>
@@ -17010,7 +16991,7 @@
         <v>223</v>
       </c>
       <c r="D98" s="68">
-        <f>'1月'!E98+'2月'!E98+'3月'!E98+'4月'!E98+'5月'!E98+'6月'!E98+'7月'!E98+'8月'!E98+'9月'!E98+'10月'!E98+'11月'!E98+'12月'!E98</f>
+        <f>'1月'!E100+'2月'!E98+'3月'!E98+'4月'!E98+'5月'!E98+'6月'!E98+'7月'!E98+'8月'!E98+'9月'!E98+'10月'!E98+'11月'!E98+'12月'!E98</f>
         <v>0</v>
       </c>
       <c r="E98" s="69"/>
@@ -17039,7 +17020,7 @@
         <v>227</v>
       </c>
       <c r="D100" s="68">
-        <f>'1月'!E100+'2月'!E100+'3月'!E100+'4月'!E100+'5月'!E100+'6月'!E100+'7月'!E100+'8月'!E100+'9月'!E100+'10月'!E100+'11月'!E100+'12月'!E100</f>
+        <f>'1月'!E102+'2月'!E100+'3月'!E100+'4月'!E100+'5月'!E100+'6月'!E100+'7月'!E100+'8月'!E100+'9月'!E100+'10月'!E100+'11月'!E100+'12月'!E100</f>
         <v>60</v>
       </c>
       <c r="E100" s="69"/>
@@ -17067,7 +17048,7 @@
         <v>230</v>
       </c>
       <c r="D102" s="76">
-        <f>'1月'!E102+'2月'!E102+'3月'!E102+'4月'!E102+'5月'!E102+'6月'!E102+'7月'!E102+'8月'!E102+'9月'!E102+'10月'!E102+'11月'!E102+'12月'!E102</f>
+        <f>'1月'!E104+'2月'!E102+'3月'!E102+'4月'!E102+'5月'!E102+'6月'!E102+'7月'!E102+'8月'!E102+'9月'!E102+'10月'!E102+'11月'!E102+'12月'!E102</f>
         <v>0</v>
       </c>
       <c r="E102" s="77"/>
@@ -17083,7 +17064,7 @@
         <v>230</v>
       </c>
       <c r="D103" s="76">
-        <f>'1月'!E103+'2月'!E103+'3月'!E103+'4月'!E103+'5月'!E103+'6月'!E103+'7月'!E103+'8月'!E103+'9月'!E103+'10月'!E103+'11月'!E103+'12月'!E103</f>
+        <f>'1月'!E105+'2月'!E103+'3月'!E103+'4月'!E103+'5月'!E103+'6月'!E103+'7月'!E103+'8月'!E103+'9月'!E103+'10月'!E103+'11月'!E103+'12月'!E103</f>
         <v>0</v>
       </c>
       <c r="E103" s="77"/>
@@ -17097,7 +17078,7 @@
         <v>230</v>
       </c>
       <c r="D104" s="76">
-        <f>'1月'!E104+'2月'!E104+'3月'!E104+'4月'!E104+'5月'!E104+'6月'!E104+'7月'!E104+'8月'!E104+'9月'!E104+'10月'!E104+'11月'!E104+'12月'!E104</f>
+        <f>'1月'!E106+'2月'!E104+'3月'!E104+'4月'!E104+'5月'!E104+'6月'!E104+'7月'!E104+'8月'!E104+'9月'!E104+'10月'!E104+'11月'!E104+'12月'!E104</f>
         <v>0</v>
       </c>
       <c r="E104" s="77"/>
@@ -17126,7 +17107,7 @@
         <v>237</v>
       </c>
       <c r="D106" s="76">
-        <f>'1月'!E106+'2月'!E106+'3月'!E106+'4月'!E106+'5月'!E106+'6月'!E106+'7月'!E106+'8月'!E106+'9月'!E106+'10月'!E106+'11月'!E106+'12月'!E106</f>
+        <f>'1月'!E108+'2月'!E106+'3月'!E106+'4月'!E106+'5月'!E106+'6月'!E106+'7月'!E106+'8月'!E106+'9月'!E106+'10月'!E106+'11月'!E106+'12月'!E106</f>
         <v>0</v>
       </c>
       <c r="E106" s="77"/>
@@ -17140,7 +17121,7 @@
         <v>239</v>
       </c>
       <c r="D107" s="76">
-        <f>'1月'!E107+'2月'!E107+'3月'!E107+'4月'!E107+'5月'!E107+'6月'!E107+'7月'!E107+'8月'!E107+'9月'!E107+'10月'!E107+'11月'!E107+'12月'!E107</f>
+        <f>'1月'!E109+'2月'!E107+'3月'!E107+'4月'!E107+'5月'!E107+'6月'!E107+'7月'!E107+'8月'!E107+'9月'!E107+'10月'!E107+'11月'!E107+'12月'!E107</f>
         <v>0</v>
       </c>
       <c r="E107" s="77"/>
@@ -17156,7 +17137,7 @@
         <v>242</v>
       </c>
       <c r="D108" s="76">
-        <f>'1月'!E108+'2月'!E108+'3月'!E108+'4月'!E108+'5月'!E108+'6月'!E108+'7月'!E108+'8月'!E108+'9月'!E108+'10月'!E108+'11月'!E108+'12月'!E108</f>
+        <f>'1月'!E110+'2月'!E108+'3月'!E108+'4月'!E108+'5月'!E108+'6月'!E108+'7月'!E108+'8月'!E108+'9月'!E108+'10月'!E108+'11月'!E108+'12月'!E108</f>
         <v>0</v>
       </c>
       <c r="E108" s="80"/>
@@ -17170,7 +17151,7 @@
         <v>244</v>
       </c>
       <c r="D109" s="76">
-        <f>'1月'!E109+'2月'!E109+'3月'!E109+'4月'!E109+'5月'!E109+'6月'!E109+'7月'!E109+'8月'!E109+'9月'!E109+'10月'!E109+'11月'!E109+'12月'!E109</f>
+        <f>'1月'!E111+'2月'!E109+'3月'!E109+'4月'!E109+'5月'!E109+'6月'!E109+'7月'!E109+'8月'!E109+'9月'!E109+'10月'!E109+'11月'!E109+'12月'!E109</f>
         <v>12</v>
       </c>
       <c r="E109" s="80"/>
@@ -17199,7 +17180,7 @@
         <v>248</v>
       </c>
       <c r="D111" s="76">
-        <f>'1月'!E111+'2月'!E111+'3月'!E111+'4月'!E111+'5月'!E111+'6月'!E111+'7月'!E111+'8月'!E111+'9月'!E111+'10月'!E111+'11月'!E111+'12月'!E111</f>
+        <f>'1月'!E113+'2月'!E111+'3月'!E111+'4月'!E111+'5月'!E111+'6月'!E111+'7月'!E111+'8月'!E111+'9月'!E111+'10月'!E111+'11月'!E111+'12月'!E111</f>
         <v>24</v>
       </c>
       <c r="E111" s="80"/>
@@ -17213,7 +17194,7 @@
         <v>230</v>
       </c>
       <c r="D112" s="76">
-        <f>'1月'!E112+'2月'!E112+'3月'!E112+'4月'!E112+'5月'!E112+'6月'!E112+'7月'!E112+'8月'!E112+'9月'!E112+'10月'!E112+'11月'!E112+'12月'!E112</f>
+        <f>'1月'!E114+'2月'!E112+'3月'!E112+'4月'!E112+'5月'!E112+'6月'!E112+'7月'!E112+'8月'!E112+'9月'!E112+'10月'!E112+'11月'!E112+'12月'!E112</f>
         <v>0</v>
       </c>
       <c r="E112" s="80"/>
@@ -17227,7 +17208,7 @@
         <v>251</v>
       </c>
       <c r="D113" s="76">
-        <f>'1月'!E113+'2月'!E113+'3月'!E113+'4月'!E113+'5月'!E113+'6月'!E113+'7月'!E113+'8月'!E113+'9月'!E113+'10月'!E113+'11月'!E113+'12月'!E113</f>
+        <f>'1月'!E115+'2月'!E113+'3月'!E113+'4月'!E113+'5月'!E113+'6月'!E113+'7月'!E113+'8月'!E113+'9月'!E113+'10月'!E113+'11月'!E113+'12月'!E113</f>
         <v>0</v>
       </c>
       <c r="E113" s="80"/>
@@ -17241,7 +17222,7 @@
         <v>230</v>
       </c>
       <c r="D114" s="76">
-        <f>'1月'!E114+'2月'!E114+'3月'!E114+'4月'!E114+'5月'!E114+'6月'!E114+'7月'!E114+'8月'!E114+'9月'!E114+'10月'!E114+'11月'!E114+'12月'!E114</f>
+        <f>'1月'!E116+'2月'!E114+'3月'!E114+'4月'!E114+'5月'!E114+'6月'!E114+'7月'!E114+'8月'!E114+'9月'!E114+'10月'!E114+'11月'!E114+'12月'!E114</f>
         <v>0</v>
       </c>
       <c r="E114" s="80"/>
@@ -17282,7 +17263,7 @@
         <v>254</v>
       </c>
       <c r="D117" s="85">
-        <f>'1月'!E117+'2月'!E117+'3月'!E117+'4月'!E117+'5月'!E117+'6月'!E117+'7月'!E117+'8月'!E117+'9月'!E117+'10月'!E117+'11月'!E117+'12月'!E117</f>
+        <f>'1月'!E119+'2月'!E117+'3月'!E117+'4月'!E117+'5月'!E117+'6月'!E117+'7月'!E117+'8月'!E117+'9月'!E117+'10月'!E117+'11月'!E117+'12月'!E117</f>
         <v>60</v>
       </c>
       <c r="E117" s="86"/>
@@ -17298,7 +17279,7 @@
         <v>257</v>
       </c>
       <c r="D118" s="85">
-        <f>'1月'!E118+'2月'!E118+'3月'!E118+'4月'!E118+'5月'!E118+'6月'!E118+'7月'!E118+'8月'!E118+'9月'!E118+'10月'!E118+'11月'!E118+'12月'!E118</f>
+        <f>'1月'!E120+'2月'!E118+'3月'!E118+'4月'!E118+'5月'!E118+'6月'!E118+'7月'!E118+'8月'!E118+'9月'!E118+'10月'!E118+'11月'!E118+'12月'!E118</f>
         <v>60</v>
       </c>
       <c r="E118" s="86"/>
@@ -17312,7 +17293,7 @@
         <v>259</v>
       </c>
       <c r="D119" s="85">
-        <f>'1月'!E119+'2月'!E119+'3月'!E119+'4月'!E119+'5月'!E119+'6月'!E119+'7月'!E119+'8月'!E119+'9月'!E119+'10月'!E119+'11月'!E119+'12月'!E119</f>
+        <f>'1月'!E121+'2月'!E119+'3月'!E119+'4月'!E119+'5月'!E119+'6月'!E119+'7月'!E119+'8月'!E119+'9月'!E119+'10月'!E119+'11月'!E119+'12月'!E119</f>
         <v>60</v>
       </c>
       <c r="E119" s="86"/>
@@ -17328,7 +17309,7 @@
         <v>262</v>
       </c>
       <c r="D120" s="85">
-        <f>'1月'!E120+'2月'!E120+'3月'!E120+'4月'!E120+'5月'!E120+'6月'!E120+'7月'!E120+'8月'!E120+'9月'!E120+'10月'!E120+'11月'!E120+'12月'!E120</f>
+        <f>'1月'!E122+'2月'!E120+'3月'!E120+'4月'!E120+'5月'!E120+'6月'!E120+'7月'!E120+'8月'!E120+'9月'!E120+'10月'!E120+'11月'!E120+'12月'!E120</f>
         <v>60</v>
       </c>
       <c r="E120" s="86"/>
@@ -17342,7 +17323,7 @@
         <v>264</v>
       </c>
       <c r="D121" s="85">
-        <f>'1月'!E121+'2月'!E121+'3月'!E121+'4月'!E121+'5月'!E121+'6月'!E121+'7月'!E121+'8月'!E121+'9月'!E121+'10月'!E121+'11月'!E121+'12月'!E121</f>
+        <f>'1月'!E123+'2月'!E121+'3月'!E121+'4月'!E121+'5月'!E121+'6月'!E121+'7月'!E121+'8月'!E121+'9月'!E121+'10月'!E121+'11月'!E121+'12月'!E121</f>
         <v>12</v>
       </c>
       <c r="E121" s="86"/>
@@ -17356,7 +17337,7 @@
         <v>264</v>
       </c>
       <c r="D122" s="85">
-        <f>'1月'!E122+'2月'!E122+'3月'!E122+'4月'!E122+'5月'!E122+'6月'!E122+'7月'!E122+'8月'!E122+'9月'!E122+'10月'!E122+'11月'!E122+'12月'!E122</f>
+        <f>'1月'!E124+'2月'!E122+'3月'!E122+'4月'!E122+'5月'!E122+'6月'!E122+'7月'!E122+'8月'!E122+'9月'!E122+'10月'!E122+'11月'!E122+'12月'!E122</f>
         <v>12</v>
       </c>
       <c r="E122" s="86"/>
@@ -17385,7 +17366,7 @@
         <v>257</v>
       </c>
       <c r="D124" s="85">
-        <f>'1月'!E124+'2月'!E124+'3月'!E124+'4月'!E124+'5月'!E124+'6月'!E124+'7月'!E124+'8月'!E124+'9月'!E124+'10月'!E124+'11月'!E124+'12月'!E124</f>
+        <f>'1月'!E126+'2月'!E124+'3月'!E124+'4月'!E124+'5月'!E124+'6月'!E124+'7月'!E124+'8月'!E124+'9月'!E124+'10月'!E124+'11月'!E124+'12月'!E124</f>
         <v>60</v>
       </c>
       <c r="E124" s="86"/>
@@ -18901,7 +18882,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="198" t="s">
+      <c r="D76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="153">
@@ -18919,7 +18900,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="198" t="s">
+      <c r="D77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="153">
@@ -18937,7 +18918,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="199" t="s">
+      <c r="D78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="153">
@@ -18955,7 +18936,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="199" t="s">
+      <c r="D79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="153">
@@ -18973,7 +18954,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="153">
@@ -18991,7 +18972,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="199" t="s">
+      <c r="D81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="153">
@@ -19009,7 +18990,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="153">
@@ -19027,7 +19008,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="153">
@@ -21409,7 +21390,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="198" t="s">
+      <c r="D76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="44">
@@ -21427,7 +21408,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="198" t="s">
+      <c r="D77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="44">
@@ -21445,7 +21426,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="199" t="s">
+      <c r="D78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="44">
@@ -21463,7 +21444,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="199" t="s">
+      <c r="D79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="44">
@@ -21481,7 +21462,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="44">
@@ -21499,7 +21480,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="199" t="s">
+      <c r="D81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="44">
@@ -21517,7 +21498,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="44">
@@ -21535,7 +21516,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="44">
@@ -23917,7 +23898,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="198" t="s">
+      <c r="D76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="44">
@@ -23935,7 +23916,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="198" t="s">
+      <c r="D77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="44">
@@ -23953,7 +23934,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="199" t="s">
+      <c r="D78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="44">
@@ -23971,7 +23952,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="199" t="s">
+      <c r="D79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="44">
@@ -23989,7 +23970,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="44">
@@ -24007,7 +23988,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="199" t="s">
+      <c r="D81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="44">
@@ -24025,7 +24006,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="44">
@@ -24043,7 +24024,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="44">
@@ -26425,7 +26406,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="198" t="s">
+      <c r="D76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="44">
@@ -26443,7 +26424,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="198" t="s">
+      <c r="D77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="44">
@@ -26461,7 +26442,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="199" t="s">
+      <c r="D78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="44">
@@ -26479,7 +26460,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="199" t="s">
+      <c r="D79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="44">
@@ -26497,7 +26478,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="44">
@@ -26515,7 +26496,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="199" t="s">
+      <c r="D81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="44">
@@ -26533,7 +26514,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="44">
@@ -26551,7 +26532,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="44">
@@ -28933,7 +28914,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="198" t="s">
+      <c r="D76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="153">
@@ -28951,7 +28932,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="198" t="s">
+      <c r="D77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="153">
@@ -28969,7 +28950,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="199" t="s">
+      <c r="D78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="153">
@@ -28987,7 +28968,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="199" t="s">
+      <c r="D79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="153">
@@ -29005,7 +28986,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="153">
@@ -29023,7 +29004,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="199" t="s">
+      <c r="D81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="153">
@@ -29041,7 +29022,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="153">
@@ -29059,7 +29040,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="153">
@@ -31442,7 +31423,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="198" t="s">
+      <c r="D76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="44">
@@ -31460,7 +31441,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="198" t="s">
+      <c r="D77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="44">
@@ -31478,7 +31459,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="199" t="s">
+      <c r="D78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="44">
@@ -31496,7 +31477,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="199" t="s">
+      <c r="D79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="44">
@@ -31514,7 +31495,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="44">
@@ -31532,7 +31513,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="199" t="s">
+      <c r="D81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="44">
@@ -31550,7 +31531,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="44">
@@ -31568,7 +31549,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="44">
@@ -33950,7 +33931,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="198" t="s">
+      <c r="D76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="44">
@@ -33968,7 +33949,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="198" t="s">
+      <c r="D77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="44">
@@ -33986,7 +33967,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="199" t="s">
+      <c r="D78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="44">
@@ -34004,7 +33985,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="199" t="s">
+      <c r="D79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="44">
@@ -34022,7 +34003,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="44">
@@ -34040,7 +34021,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="199" t="s">
+      <c r="D81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="44">
@@ -34058,7 +34039,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="44">
@@ -34076,7 +34057,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="44">
@@ -36458,7 +36439,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="198" t="s">
+      <c r="D76" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="44">
@@ -36476,7 +36457,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="198" t="s">
+      <c r="D77" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="44">
@@ -36494,7 +36475,7 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="199" t="s">
+      <c r="D78" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="44">
@@ -36512,7 +36493,7 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="199" t="s">
+      <c r="D79" s="191" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="44">
@@ -36530,7 +36511,7 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="199" t="s">
+      <c r="D80" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="44">
@@ -36548,7 +36529,7 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="199" t="s">
+      <c r="D81" s="191" t="s">
         <v>192</v>
       </c>
       <c r="E81" s="44">
@@ -36566,7 +36547,7 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="198" t="s">
+      <c r="D82" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="44">
@@ -36584,7 +36565,7 @@
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="198" t="s">
+      <c r="D83" s="190" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="44">
